--- a/8/servers-xlsx-b45414d1440b649c23868d9b19e0f22e5f012826.xlsx
+++ b/8/servers-xlsx-b45414d1440b649c23868d9b19e0f22e5f012826.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -430,9 +430,23 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3">
+        <v>607178</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Leannon, Hammes and Brown</v>
+      </c>
+      <c r="C3" t="str">
+        <v>https://aggressive-tomb.name</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/8/servers-xlsx-b45414d1440b649c23868d9b19e0f22e5f012826.xlsx
+++ b/8/servers-xlsx-b45414d1440b649c23868d9b19e0f22e5f012826.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -430,9 +430,23 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3">
+        <v>694466</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Hirthe Inc</v>
+      </c>
+      <c r="C3" t="str">
+        <v>https://annual-lashes.net/</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/8/servers-xlsx-b45414d1440b649c23868d9b19e0f22e5f012826.xlsx
+++ b/8/servers-xlsx-b45414d1440b649c23868d9b19e0f22e5f012826.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -430,23 +430,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3">
-        <v>694466</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Hirthe Inc</v>
-      </c>
-      <c r="C3" t="str">
-        <v>https://annual-lashes.net/</v>
-      </c>
-      <c r="D3" t="b">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/8/servers-xlsx-b45414d1440b649c23868d9b19e0f22e5f012826.xlsx
+++ b/8/servers-xlsx-b45414d1440b649c23868d9b19e0f22e5f012826.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -430,9 +430,37 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3">
+        <v>700450</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Windler, Von and Hodkiewicz</v>
+      </c>
+      <c r="C3" t="str">
+        <v>https://hateful-folklore.biz</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>27621</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Cummings - Cremin</v>
+      </c>
+      <c r="C4" t="str">
+        <v>https://husky-newsstand.com</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/8/servers-xlsx-b45414d1440b649c23868d9b19e0f22e5f012826.xlsx
+++ b/8/servers-xlsx-b45414d1440b649c23868d9b19e0f22e5f012826.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -432,35 +432,21 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>700450</v>
+        <v>784323</v>
       </c>
       <c r="B3" t="str">
-        <v>Windler, Von and Hodkiewicz</v>
+        <v>Bauch, Jones and Walsh</v>
       </c>
       <c r="C3" t="str">
-        <v>https://hateful-folklore.biz</v>
+        <v>https://tinted-account.info</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>27621</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Cummings - Cremin</v>
-      </c>
-      <c r="C4" t="str">
-        <v>https://husky-newsstand.com</v>
-      </c>
-      <c r="D4" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/8/servers-xlsx-b45414d1440b649c23868d9b19e0f22e5f012826.xlsx
+++ b/8/servers-xlsx-b45414d1440b649c23868d9b19e0f22e5f012826.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -430,23 +430,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="str">
-        <v>lambdatest</v>
-      </c>
-      <c r="C3" t="str">
-        <v>https://kaneai.lambdatest.com</v>
-      </c>
-      <c r="D3" t="b">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/8/servers-xlsx-b45414d1440b649c23868d9b19e0f22e5f012826.xlsx
+++ b/8/servers-xlsx-b45414d1440b649c23868d9b19e0f22e5f012826.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -430,23 +430,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3">
-        <v>160804</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Crona - Hane</v>
-      </c>
-      <c r="C3" t="str">
-        <v>https://mundane-typeface.net</v>
-      </c>
-      <c r="D3" t="b">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/8/servers-xlsx-b45414d1440b649c23868d9b19e0f22e5f012826.xlsx
+++ b/8/servers-xlsx-b45414d1440b649c23868d9b19e0f22e5f012826.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -430,9 +430,23 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3">
+        <v>393325</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Gleason - Wehner</v>
+      </c>
+      <c r="C3" t="str">
+        <v>https://lawful-printer.name/</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/8/servers-xlsx-b45414d1440b649c23868d9b19e0f22e5f012826.xlsx
+++ b/8/servers-xlsx-b45414d1440b649c23868d9b19e0f22e5f012826.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -430,9 +430,23 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3">
+        <v>144176</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Wisozk LLC</v>
+      </c>
+      <c r="C3" t="str">
+        <v>https://inborn-summer.info</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/8/servers-xlsx-b45414d1440b649c23868d9b19e0f22e5f012826.xlsx
+++ b/8/servers-xlsx-b45414d1440b649c23868d9b19e0f22e5f012826.xlsx
@@ -432,13 +432,13 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>144176</v>
+        <v>959937</v>
       </c>
       <c r="B3" t="str">
-        <v>Wisozk LLC</v>
+        <v>Kessler, Waelchi and Rogahn</v>
       </c>
       <c r="C3" t="str">
-        <v>https://inborn-summer.info</v>
+        <v>https://informal-vibration.org</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
